--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Isolator_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Isolator_19DX101.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="23">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,7 +515,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -541,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -567,7 +567,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -593,7 +593,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -619,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -645,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -671,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -697,7 +697,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -723,10 +723,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="2">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2">
         <v>18</v>
@@ -749,10 +749,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2">
         <v>36</v>
@@ -775,10 +775,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2">
         <v>54</v>
@@ -801,10 +801,10 @@
         <v>21</v>
       </c>
       <c r="D14" s="2">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2">
         <v>72</v>
@@ -824,22 +824,22 @@
         <v>0.22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -847,25 +847,25 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -876,22 +876,22 @@
         <v>0.4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -899,25 +899,25 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -925,25 +925,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -951,25 +951,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="G20" s="2">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1009,19 +1009,19 @@
         <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1029,25 +1029,25 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2">
-        <v>630</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H23" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1055,25 +1055,25 @@
         <v>19</v>
       </c>
       <c r="B24" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2">
-        <v>630</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H24" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1087,19 +1087,19 @@
         <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>800</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="2">
-        <v>441</v>
+        <v>54</v>
       </c>
       <c r="G25" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1113,19 +1113,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="2">
-        <v>800</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>556</v>
+        <v>72</v>
       </c>
       <c r="G26" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H26" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1133,25 +1133,25 @@
         <v>19</v>
       </c>
       <c r="B27" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>441</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H27" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1159,25 +1159,25 @@
         <v>19</v>
       </c>
       <c r="B28" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2">
-        <v>556</v>
+        <v>36</v>
       </c>
       <c r="G28" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H28" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1191,19 +1191,19 @@
         <v>18</v>
       </c>
       <c r="D29" s="2">
-        <v>1250</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2">
-        <v>441</v>
+        <v>54</v>
       </c>
       <c r="G29" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H29" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1217,19 +1217,19 @@
         <v>21</v>
       </c>
       <c r="D30" s="2">
-        <v>1250</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>556</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H30" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1237,25 +1237,25 @@
         <v>19</v>
       </c>
       <c r="B31" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="2">
-        <v>441</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H31" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1263,25 +1263,25 @@
         <v>19</v>
       </c>
       <c r="B32" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="2">
-        <v>556</v>
+        <v>36</v>
       </c>
       <c r="G32" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H32" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1295,19 +1295,19 @@
         <v>18</v>
       </c>
       <c r="D33" s="2">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="2">
-        <v>441</v>
+        <v>54</v>
       </c>
       <c r="G33" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H33" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1321,19 +1321,19 @@
         <v>21</v>
       </c>
       <c r="D34" s="2">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="2">
-        <v>556</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H34" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1341,25 +1341,25 @@
         <v>19</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2">
-        <v>2500</v>
+        <v>125</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="2">
-        <v>441</v>
+        <v>18</v>
       </c>
       <c r="G35" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H35" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1367,25 +1367,25 @@
         <v>19</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2">
-        <v>2500</v>
+        <v>125</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="2">
-        <v>556</v>
+        <v>36</v>
       </c>
       <c r="G36" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H36" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1399,19 +1399,19 @@
         <v>18</v>
       </c>
       <c r="D37" s="2">
-        <v>3200</v>
+        <v>125</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="2">
-        <v>441</v>
+        <v>54</v>
       </c>
       <c r="G37" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H37" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1425,19 +1425,19 @@
         <v>21</v>
       </c>
       <c r="D38" s="2">
-        <v>3200</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F38" s="2">
-        <v>556</v>
+        <v>72</v>
       </c>
       <c r="G38" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1445,25 +1445,25 @@
         <v>19</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2">
-        <v>4000</v>
+        <v>160</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F39" s="2">
-        <v>441</v>
+        <v>105</v>
       </c>
       <c r="G39" s="2">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="H39" s="2">
-        <v>439</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1474,22 +1474,22 @@
         <v>0.4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2">
-        <v>4000</v>
+        <v>160</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="2">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="G40" s="2">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="H40" s="2">
-        <v>439</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1500,22 +1500,22 @@
         <v>0.4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2">
-        <v>5000</v>
+        <v>160</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="2">
-        <v>786</v>
+        <v>140</v>
       </c>
       <c r="G41" s="2">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="H41" s="2">
-        <v>479</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1523,25 +1523,25 @@
         <v>19</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="2">
-        <v>1016</v>
+        <v>105</v>
       </c>
       <c r="G42" s="2">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="H42" s="2">
-        <v>479</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1555,19 +1555,19 @@
         <v>18</v>
       </c>
       <c r="D43" s="2">
-        <v>6300</v>
+        <v>250</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F43" s="2">
-        <v>786</v>
+        <v>105</v>
       </c>
       <c r="G43" s="2">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="H43" s="2">
-        <v>479</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1581,18 +1581,642 @@
         <v>21</v>
       </c>
       <c r="D44" s="2">
+        <v>250</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="2">
+        <v>140</v>
+      </c>
+      <c r="G44" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2">
+        <v>400</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="2">
+        <v>140</v>
+      </c>
+      <c r="G45" s="2">
+        <v>110</v>
+      </c>
+      <c r="H45" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="2">
+        <v>400</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="2">
+        <v>185</v>
+      </c>
+      <c r="G46" s="2">
+        <v>110</v>
+      </c>
+      <c r="H46" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2">
+        <v>630</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="2">
+        <v>140</v>
+      </c>
+      <c r="G47" s="2">
+        <v>110</v>
+      </c>
+      <c r="H47" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="2">
+        <v>630</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="2">
+        <v>185</v>
+      </c>
+      <c r="G48" s="2">
+        <v>110</v>
+      </c>
+      <c r="H48" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2">
+        <v>800</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="2">
+        <v>441</v>
+      </c>
+      <c r="G49" s="2">
+        <v>403</v>
+      </c>
+      <c r="H49" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="2">
+        <v>800</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="2">
+        <v>556</v>
+      </c>
+      <c r="G50" s="2">
+        <v>403</v>
+      </c>
+      <c r="H50" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="2">
+        <v>441</v>
+      </c>
+      <c r="G51" s="2">
+        <v>403</v>
+      </c>
+      <c r="H51" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="2">
+        <v>556</v>
+      </c>
+      <c r="G52" s="2">
+        <v>403</v>
+      </c>
+      <c r="H52" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="2">
+        <v>441</v>
+      </c>
+      <c r="G53" s="2">
+        <v>403</v>
+      </c>
+      <c r="H53" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="2">
+        <v>556</v>
+      </c>
+      <c r="G54" s="2">
+        <v>403</v>
+      </c>
+      <c r="H54" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="2">
+        <v>441</v>
+      </c>
+      <c r="G55" s="2">
+        <v>403</v>
+      </c>
+      <c r="H55" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="2">
+        <v>556</v>
+      </c>
+      <c r="G56" s="2">
+        <v>403</v>
+      </c>
+      <c r="H56" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2">
+        <v>441</v>
+      </c>
+      <c r="G57" s="2">
+        <v>403</v>
+      </c>
+      <c r="H57" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="2">
+        <v>556</v>
+      </c>
+      <c r="G58" s="2">
+        <v>403</v>
+      </c>
+      <c r="H58" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="2">
+        <v>441</v>
+      </c>
+      <c r="G59" s="2">
+        <v>403</v>
+      </c>
+      <c r="H59" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="2">
+        <v>556</v>
+      </c>
+      <c r="G60" s="2">
+        <v>403</v>
+      </c>
+      <c r="H60" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="2">
+        <v>441</v>
+      </c>
+      <c r="G61" s="2">
+        <v>403</v>
+      </c>
+      <c r="H61" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="2">
+        <v>556</v>
+      </c>
+      <c r="G62" s="2">
+        <v>403</v>
+      </c>
+      <c r="H62" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="2">
+        <v>441</v>
+      </c>
+      <c r="G63" s="2">
+        <v>403</v>
+      </c>
+      <c r="H63" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="2">
+        <v>556</v>
+      </c>
+      <c r="G64" s="2">
+        <v>403</v>
+      </c>
+      <c r="H64" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="2">
+        <v>786</v>
+      </c>
+      <c r="G65" s="2">
+        <v>403</v>
+      </c>
+      <c r="H65" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1016</v>
+      </c>
+      <c r="G66" s="2">
+        <v>403</v>
+      </c>
+      <c r="H66" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="2">
         <v>6300</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="2">
+        <v>786</v>
+      </c>
+      <c r="G67" s="2">
+        <v>403</v>
+      </c>
+      <c r="H67" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6300</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="2">
         <v>1016</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G68" s="2">
         <v>403</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H68" s="2">
         <v>479</v>
       </c>
     </row>

--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Isolator_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Isolator_19DX101.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="QL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="23">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -931,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -957,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -983,7 +983,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -1009,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -1035,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
@@ -1061,7 +1061,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -1087,7 +1087,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -1113,7 +1113,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -1139,10 +1139,10 @@
         <v>16</v>
       </c>
       <c r="D27" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2">
         <v>18</v>
@@ -1165,10 +1165,10 @@
         <v>20</v>
       </c>
       <c r="D28" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F28" s="2">
         <v>36</v>
@@ -1191,10 +1191,10 @@
         <v>18</v>
       </c>
       <c r="D29" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F29" s="2">
         <v>54</v>
@@ -1217,10 +1217,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F30" s="2">
         <v>72</v>
@@ -1243,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -1269,7 +1269,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
@@ -1295,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -1321,7 +1321,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -1344,22 +1344,22 @@
         <v>0.22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="2">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="G35" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H35" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1367,25 +1367,25 @@
         <v>19</v>
       </c>
       <c r="B36" s="2">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="2">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="G36" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H36" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1396,22 +1396,22 @@
         <v>0.4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D37" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="2">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="G37" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H37" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1419,25 +1419,25 @@
         <v>19</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="2">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F38" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G38" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H38" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1445,13 +1445,13 @@
         <v>19</v>
       </c>
       <c r="B39" s="2">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>22</v>
@@ -1474,16 +1474,16 @@
         <v>0.4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="G40" s="2">
         <v>86</v>
@@ -1500,10 +1500,10 @@
         <v>0.4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -1512,10 +1512,10 @@
         <v>140</v>
       </c>
       <c r="G41" s="2">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H41" s="2">
-        <v>161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1523,25 +1523,25 @@
         <v>19</v>
       </c>
       <c r="B42" s="2">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="2">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G42" s="2">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H42" s="2">
-        <v>161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1555,19 +1555,19 @@
         <v>18</v>
       </c>
       <c r="D43" s="2">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F43" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="G43" s="2">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H43" s="2">
-        <v>161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1581,19 +1581,19 @@
         <v>21</v>
       </c>
       <c r="D44" s="2">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F44" s="2">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="G44" s="2">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H44" s="2">
-        <v>161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1607,19 +1607,19 @@
         <v>18</v>
       </c>
       <c r="D45" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="2">
-        <v>140</v>
+        <v>441</v>
       </c>
       <c r="G45" s="2">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="H45" s="2">
-        <v>255</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1633,19 +1633,19 @@
         <v>21</v>
       </c>
       <c r="D46" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="2">
-        <v>185</v>
+        <v>556</v>
       </c>
       <c r="G46" s="2">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="H46" s="2">
-        <v>255</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1659,19 +1659,19 @@
         <v>18</v>
       </c>
       <c r="D47" s="2">
-        <v>630</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F47" s="2">
-        <v>140</v>
+        <v>441</v>
       </c>
       <c r="G47" s="2">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="H47" s="2">
-        <v>255</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1685,19 +1685,19 @@
         <v>21</v>
       </c>
       <c r="D48" s="2">
-        <v>630</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="2">
-        <v>185</v>
+        <v>556</v>
       </c>
       <c r="G48" s="2">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="H48" s="2">
-        <v>255</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1711,7 +1711,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="2">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>22</v>
@@ -1737,7 +1737,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="2">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
@@ -1763,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="D51" s="2">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>22</v>
@@ -1789,7 +1789,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="2">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>22</v>
@@ -1815,7 +1815,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="2">
-        <v>1250</v>
+        <v>2000</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -1841,7 +1841,7 @@
         <v>21</v>
       </c>
       <c r="D54" s="2">
-        <v>1250</v>
+        <v>2000</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>22</v>
@@ -1867,7 +1867,7 @@
         <v>18</v>
       </c>
       <c r="D55" s="2">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>22</v>
@@ -1893,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="2">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
@@ -1919,7 +1919,7 @@
         <v>18</v>
       </c>
       <c r="D57" s="2">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>22</v>
@@ -1945,7 +1945,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="2">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>22</v>
@@ -1971,7 +1971,7 @@
         <v>18</v>
       </c>
       <c r="D59" s="2">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
@@ -1997,7 +1997,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="2">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>22</v>
@@ -2023,19 +2023,19 @@
         <v>18</v>
       </c>
       <c r="D61" s="2">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F61" s="2">
-        <v>441</v>
+        <v>786</v>
       </c>
       <c r="G61" s="2">
         <v>403</v>
       </c>
       <c r="H61" s="2">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2049,19 +2049,19 @@
         <v>21</v>
       </c>
       <c r="D62" s="2">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F62" s="2">
-        <v>556</v>
+        <v>1016</v>
       </c>
       <c r="G62" s="2">
         <v>403</v>
       </c>
       <c r="H62" s="2">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2075,19 +2075,19 @@
         <v>18</v>
       </c>
       <c r="D63" s="2">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="2">
-        <v>441</v>
+        <v>786</v>
       </c>
       <c r="G63" s="2">
         <v>403</v>
       </c>
       <c r="H63" s="2">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2101,122 +2101,18 @@
         <v>21</v>
       </c>
       <c r="D64" s="2">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F64" s="2">
-        <v>556</v>
+        <v>1016</v>
       </c>
       <c r="G64" s="2">
         <v>403</v>
       </c>
       <c r="H64" s="2">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="2">
-        <v>786</v>
-      </c>
-      <c r="G65" s="2">
-        <v>403</v>
-      </c>
-      <c r="H65" s="2">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1016</v>
-      </c>
-      <c r="G66" s="2">
-        <v>403</v>
-      </c>
-      <c r="H66" s="2">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="2">
-        <v>6300</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="2">
-        <v>786</v>
-      </c>
-      <c r="G67" s="2">
-        <v>403</v>
-      </c>
-      <c r="H67" s="2">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="2">
-        <v>6300</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1016</v>
-      </c>
-      <c r="G68" s="2">
-        <v>403</v>
-      </c>
-      <c r="H68" s="2">
         <v>479</v>
       </c>
     </row>
